--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,15 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
@@ -452,14 +457,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
         <v>135</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -467,14 +475,17 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
         <v>110</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -482,14 +493,17 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
         <v>150</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -497,14 +511,17 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
         <v>180</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -512,14 +529,17 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
         <v>160</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -527,14 +547,17 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
         <v>140</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C7" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -542,14 +565,17 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
         <v>120</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -557,14 +583,17 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
         <v>160</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C9" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -572,14 +601,17 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
         <v>170</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C10" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -587,14 +619,17 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
         <v>180</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C11" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -602,14 +637,17 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
         <v>190</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C12" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -617,14 +655,17 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
         <v>200</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C13" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -632,14 +673,17 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
         <v>130</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -647,14 +691,17 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
         <v>135</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C15" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -662,14 +709,17 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
         <v>110</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -677,14 +727,17 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
         <v>150</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C17" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -692,14 +745,17 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
         <v>180</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -707,14 +763,17 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
         <v>160</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C19" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -722,14 +781,17 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
         <v>140</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C20" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -737,14 +799,17 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
         <v>120</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -752,14 +817,17 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
         <v>160</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C22" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -767,14 +835,17 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
         <v>170</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C23" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -782,14 +853,17 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
         <v>180</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C24" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -797,14 +871,17 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
         <v>190</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C25" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -812,14 +889,17 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
         <v>200</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C26" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -827,14 +907,17 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
         <v>130</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -842,14 +925,17 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
         <v>135</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C28" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -857,14 +943,17 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
         <v>110</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -872,14 +961,17 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
         <v>150</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C30" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -887,14 +979,17 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
         <v>180</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -902,14 +997,17 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
         <v>160</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C32" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -917,14 +1015,17 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
         <v>140</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C33" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -932,14 +1033,17 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
         <v>120</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -947,14 +1051,17 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
         <v>160</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C35" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -962,14 +1069,17 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
         <v>170</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C36" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -977,14 +1087,17 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
         <v>180</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C37" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -992,14 +1105,17 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
         <v>190</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C38" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -1007,14 +1123,17 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
         <v>200</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C39" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1022,14 +1141,17 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
         <v>130</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1037,14 +1159,17 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
         <v>135</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C41" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -1052,14 +1177,17 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
         <v>110</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -1067,14 +1195,17 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
         <v>150</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C43" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -1082,14 +1213,17 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
         <v>180</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1097,14 +1231,17 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
         <v>160</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C45" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1112,14 +1249,17 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
         <v>140</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C46" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -1127,14 +1267,17 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
         <v>120</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -1142,14 +1285,17 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
         <v>160</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C48" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1157,14 +1303,17 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
         <v>170</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C49" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1172,14 +1321,17 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
         <v>180</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C50" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1187,14 +1339,17 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
         <v>190</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C51" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1202,14 +1357,17 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
         <v>200</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C52" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -1217,14 +1375,17 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
         <v>130</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1232,14 +1393,17 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
         <v>135</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C54" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1247,14 +1411,17 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
         <v>110</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -1262,14 +1429,17 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
         <v>150</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C56" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -1277,14 +1447,17 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
         <v>180</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -1292,14 +1465,17 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
         <v>160</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C58" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1307,14 +1483,17 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
         <v>140</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C59" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -1322,14 +1501,17 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
         <v>120</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -1337,14 +1519,17 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
         <v>160</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C61" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1352,14 +1537,17 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
         <v>170</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C62" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -1367,14 +1555,17 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
         <v>180</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C63" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1382,14 +1573,17 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
         <v>190</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C64" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -1397,14 +1591,17 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
         <v>200</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C65" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1412,14 +1609,17 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
         <v>130</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1427,14 +1627,17 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
         <v>145</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C67" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -1442,14 +1645,17 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
         <v>130</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1457,14 +1663,17 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
+        <v>66</v>
+      </c>
+      <c r="B69" t="n">
         <v>125</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C69" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -1472,14 +1681,17 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
+        <v>66</v>
+      </c>
+      <c r="B70" t="n">
         <v>160</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C70" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -1487,14 +1699,17 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
+        <v>66</v>
+      </c>
+      <c r="B71" t="n">
         <v>148</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -1502,14 +1717,17 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
+        <v>66</v>
+      </c>
+      <c r="B72" t="n">
         <v>142</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1517,14 +1735,17 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
+        <v>66</v>
+      </c>
+      <c r="B73" t="n">
         <v>150</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -1532,14 +1753,17 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
+        <v>66</v>
+      </c>
+      <c r="B74" t="n">
         <v>135</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C74" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -1547,14 +1771,17 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
+        <v>66</v>
+      </c>
+      <c r="B75" t="n">
         <v>167</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C75" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1562,14 +1789,17 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
+        <v>66</v>
+      </c>
+      <c r="B76" t="n">
         <v>120</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C76" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -1577,14 +1807,17 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
+        <v>66</v>
+      </c>
+      <c r="B77" t="n">
         <v>110</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C77" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -1592,14 +1825,17 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
+        <v>66</v>
+      </c>
+      <c r="B78" t="n">
         <v>165</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C78" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1607,14 +1843,17 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
+        <v>66</v>
+      </c>
+      <c r="B79" t="n">
         <v>155</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -1622,14 +1861,17 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
+        <v>66</v>
+      </c>
+      <c r="B80" t="n">
         <v>125</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C80" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1637,14 +1879,17 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
+        <v>66</v>
+      </c>
+      <c r="B81" t="n">
         <v>143</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C81" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -1652,14 +1897,17 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
+        <v>66</v>
+      </c>
+      <c r="B82" t="n">
         <v>170</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C82" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -1667,14 +1915,17 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
+        <v>66</v>
+      </c>
+      <c r="B83" t="n">
         <v>130</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1682,14 +1933,17 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
+        <v>66</v>
+      </c>
+      <c r="B84" t="n">
         <v>115</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -1697,14 +1951,17 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
+        <v>66</v>
+      </c>
+      <c r="B85" t="n">
         <v>100</v>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C85" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1712,14 +1969,17 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
+        <v>66</v>
+      </c>
+      <c r="B86" t="n">
         <v>150</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C86" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -1727,14 +1987,17 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
+        <v>66</v>
+      </c>
+      <c r="B87" t="n">
         <v>130</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -1742,14 +2005,17 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
+        <v>66</v>
+      </c>
+      <c r="B88" t="n">
         <v>142</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1757,14 +2023,17 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
+        <v>66</v>
+      </c>
+      <c r="B89" t="n">
         <v>120</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C89" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -1772,14 +2041,17 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
+        <v>66</v>
+      </c>
+      <c r="B90" t="n">
         <v>160</v>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C90" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -1787,14 +2059,17 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
+        <v>66</v>
+      </c>
+      <c r="B91" t="n">
         <v>110</v>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C91" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -1802,14 +2077,17 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
+        <v>66</v>
+      </c>
+      <c r="B92" t="n">
         <v>145</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C92" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -1817,14 +2095,17 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
+        <v>66</v>
+      </c>
+      <c r="B93" t="n">
         <v>125</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1832,14 +2113,17 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
+        <v>66</v>
+      </c>
+      <c r="B94" t="n">
         <v>155</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -1847,14 +2131,17 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
+        <v>66</v>
+      </c>
+      <c r="B95" t="n">
         <v>140</v>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C95" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1862,14 +2149,17 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
+        <v>66</v>
+      </c>
+      <c r="B96" t="n">
         <v>105</v>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C96" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -1877,14 +2167,17 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
+        <v>66</v>
+      </c>
+      <c r="B97" t="n">
         <v>150</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C97" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -1892,14 +2185,17 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
+        <v>66</v>
+      </c>
+      <c r="B98" t="n">
         <v>140</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1907,14 +2203,17 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
+        <v>66</v>
+      </c>
+      <c r="B99" t="n">
         <v>115</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -1922,14 +2221,17 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
+        <v>66</v>
+      </c>
+      <c r="B100" t="n">
         <v>100</v>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C100" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -1937,14 +2239,17 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
+        <v>66</v>
+      </c>
+      <c r="B101" t="n">
         <v>130</v>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C101" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -1952,14 +2257,17 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
+        <v>66</v>
+      </c>
+      <c r="B102" t="n">
         <v>165</v>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C102" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -1967,14 +2275,17 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
+        <v>66</v>
+      </c>
+      <c r="B103" t="n">
         <v>112</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -1982,14 +2293,17 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
+        <v>66</v>
+      </c>
+      <c r="B104" t="n">
         <v>122</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1997,14 +2311,17 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
+        <v>66</v>
+      </c>
+      <c r="B105" t="n">
         <v>105</v>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C105" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2012,14 +2329,17 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
+        <v>66</v>
+      </c>
+      <c r="B106" t="n">
         <v>143</v>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C106" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -2027,14 +2347,17 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
+        <v>66</v>
+      </c>
+      <c r="B107" t="n">
         <v>160</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -2042,14 +2365,17 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
+        <v>66</v>
+      </c>
+      <c r="B108" t="n">
         <v>134</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -2057,14 +2383,17 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
+        <v>66</v>
+      </c>
+      <c r="B109" t="n">
         <v>150</v>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C109" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2072,14 +2401,17 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
+        <v>66</v>
+      </c>
+      <c r="B110" t="n">
         <v>125</v>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C110" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -2087,14 +2419,17 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
+        <v>66</v>
+      </c>
+      <c r="B111" t="n">
         <v>100</v>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C111" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -2102,14 +2437,17 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
+        <v>66</v>
+      </c>
+      <c r="B112" t="n">
         <v>167</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2117,14 +2455,17 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
+        <v>66</v>
+      </c>
+      <c r="B113" t="n">
         <v>114</v>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C113" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2132,14 +2473,17 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
+        <v>66</v>
+      </c>
+      <c r="B114" t="n">
         <v>131</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2147,14 +2491,17 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
+        <v>66</v>
+      </c>
+      <c r="B115" t="n">
         <v>145</v>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C115" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2162,14 +2509,17 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
+        <v>66</v>
+      </c>
+      <c r="B116" t="n">
         <v>160</v>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C116" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -2177,14 +2527,17 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
+        <v>67</v>
+      </c>
+      <c r="B117" t="n">
         <v>145</v>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C117" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -2192,14 +2545,17 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
+        <v>67</v>
+      </c>
+      <c r="B118" t="n">
         <v>130</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2207,14 +2563,17 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
+        <v>67</v>
+      </c>
+      <c r="B119" t="n">
         <v>125</v>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C119" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2222,14 +2581,17 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
+        <v>67</v>
+      </c>
+      <c r="B120" t="n">
         <v>160</v>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C120" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2237,14 +2599,17 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
+        <v>67</v>
+      </c>
+      <c r="B121" t="n">
         <v>148</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2252,14 +2617,17 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
+        <v>67</v>
+      </c>
+      <c r="B122" t="n">
         <v>142</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -2267,14 +2635,17 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
+        <v>67</v>
+      </c>
+      <c r="B123" t="n">
         <v>150</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2282,14 +2653,17 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
+        <v>67</v>
+      </c>
+      <c r="B124" t="n">
         <v>135</v>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C124" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2297,14 +2671,17 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
+        <v>67</v>
+      </c>
+      <c r="B125" t="n">
         <v>167</v>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C125" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2312,14 +2689,17 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
+        <v>67</v>
+      </c>
+      <c r="B126" t="n">
         <v>120</v>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C126" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2327,14 +2707,17 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
+        <v>67</v>
+      </c>
+      <c r="B127" t="n">
         <v>110</v>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C127" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -2342,14 +2725,17 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
+        <v>67</v>
+      </c>
+      <c r="B128" t="n">
         <v>165</v>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C128" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2357,14 +2743,17 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
+        <v>67</v>
+      </c>
+      <c r="B129" t="n">
         <v>155</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2372,14 +2761,17 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
+        <v>67</v>
+      </c>
+      <c r="B130" t="n">
         <v>125</v>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C130" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -2387,14 +2779,17 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
+        <v>67</v>
+      </c>
+      <c r="B131" t="n">
         <v>143</v>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C131" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2402,14 +2797,17 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
+        <v>67</v>
+      </c>
+      <c r="B132" t="n">
         <v>170</v>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C132" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -2417,14 +2815,17 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
+        <v>67</v>
+      </c>
+      <c r="B133" t="n">
         <v>130</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2432,14 +2833,17 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
+        <v>67</v>
+      </c>
+      <c r="B134" t="n">
         <v>115</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2447,14 +2851,17 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
+        <v>67</v>
+      </c>
+      <c r="B135" t="n">
         <v>100</v>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C135" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -2462,14 +2869,17 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
+        <v>67</v>
+      </c>
+      <c r="B136" t="n">
         <v>150</v>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C136" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2477,14 +2887,17 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
+        <v>67</v>
+      </c>
+      <c r="B137" t="n">
         <v>130</v>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2492,14 +2905,17 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
+        <v>67</v>
+      </c>
+      <c r="B138" t="n">
         <v>142</v>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -2507,14 +2923,17 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
+        <v>67</v>
+      </c>
+      <c r="B139" t="n">
         <v>120</v>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C139" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2522,14 +2941,17 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
+        <v>67</v>
+      </c>
+      <c r="B140" t="n">
         <v>160</v>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C140" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2537,14 +2959,17 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
+        <v>67</v>
+      </c>
+      <c r="B141" t="n">
         <v>110</v>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C141" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2552,14 +2977,17 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
+        <v>67</v>
+      </c>
+      <c r="B142" t="n">
         <v>145</v>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C142" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -2567,14 +2995,17 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
+        <v>67</v>
+      </c>
+      <c r="B143" t="n">
         <v>125</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2582,14 +3013,17 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
+        <v>67</v>
+      </c>
+      <c r="B144" t="n">
         <v>155</v>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2597,14 +3031,17 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
+        <v>67</v>
+      </c>
+      <c r="B145" t="n">
         <v>140</v>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C145" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -2612,14 +3049,17 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
+        <v>67</v>
+      </c>
+      <c r="B146" t="n">
         <v>105</v>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C146" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2627,14 +3067,17 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
+        <v>67</v>
+      </c>
+      <c r="B147" t="n">
         <v>150</v>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C147" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2642,14 +3085,17 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
+        <v>67</v>
+      </c>
+      <c r="B148" t="n">
         <v>140</v>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="D148" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -2657,14 +3103,17 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
+        <v>67</v>
+      </c>
+      <c r="B149" t="n">
         <v>115</v>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2672,14 +3121,17 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
+        <v>67</v>
+      </c>
+      <c r="B150" t="n">
         <v>100</v>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C150" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2687,14 +3139,17 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
+        <v>67</v>
+      </c>
+      <c r="B151" t="n">
         <v>130</v>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C151" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -2702,14 +3157,17 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
+        <v>67</v>
+      </c>
+      <c r="B152" t="n">
         <v>165</v>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C152" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2717,14 +3175,17 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
+        <v>67</v>
+      </c>
+      <c r="B153" t="n">
         <v>112</v>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2732,14 +3193,17 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
+        <v>67</v>
+      </c>
+      <c r="B154" t="n">
         <v>122</v>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -2747,14 +3211,17 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
+        <v>67</v>
+      </c>
+      <c r="B155" t="n">
         <v>105</v>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C155" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2762,14 +3229,17 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
+        <v>67</v>
+      </c>
+      <c r="B156" t="n">
         <v>143</v>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C156" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2777,14 +3247,17 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
+        <v>67</v>
+      </c>
+      <c r="B157" t="n">
         <v>160</v>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -2792,14 +3265,17 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
+        <v>67</v>
+      </c>
+      <c r="B158" t="n">
         <v>134</v>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2807,14 +3283,17 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
+        <v>67</v>
+      </c>
+      <c r="B159" t="n">
         <v>150</v>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C159" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2822,14 +3301,17 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
+        <v>67</v>
+      </c>
+      <c r="B160" t="n">
         <v>125</v>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C160" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -2837,14 +3319,17 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
+        <v>67</v>
+      </c>
+      <c r="B161" t="n">
         <v>100</v>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C161" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -2852,14 +3337,17 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
+        <v>67</v>
+      </c>
+      <c r="B162" t="n">
         <v>167</v>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2867,14 +3355,17 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
+        <v>67</v>
+      </c>
+      <c r="B163" t="n">
         <v>114</v>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C163" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2882,14 +3373,17 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
+        <v>67</v>
+      </c>
+      <c r="B164" t="n">
         <v>131</v>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="C164" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="D164" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2897,14 +3391,17 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
+        <v>67</v>
+      </c>
+      <c r="B165" t="n">
         <v>145</v>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C165" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2912,14 +3409,17 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
+        <v>67</v>
+      </c>
+      <c r="B166" t="n">
         <v>160</v>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C166" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -2927,14 +3427,17 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
+        <v>68</v>
+      </c>
+      <c r="B167" t="n">
         <v>145</v>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C167" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -2942,14 +3445,17 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
+        <v>68</v>
+      </c>
+      <c r="B168" t="n">
         <v>130</v>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="D168" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -2957,14 +3463,17 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
+        <v>68</v>
+      </c>
+      <c r="B169" t="n">
         <v>125</v>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C169" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2972,14 +3481,17 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
+        <v>68</v>
+      </c>
+      <c r="B170" t="n">
         <v>160</v>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C170" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2987,14 +3499,17 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
+        <v>68</v>
+      </c>
+      <c r="B171" t="n">
         <v>148</v>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="D171" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -3002,14 +3517,17 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
+        <v>68</v>
+      </c>
+      <c r="B172" t="n">
         <v>142</v>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="D172" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -3017,14 +3535,17 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
+        <v>68</v>
+      </c>
+      <c r="B173" t="n">
         <v>150</v>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="D173" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3032,14 +3553,17 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
+        <v>68</v>
+      </c>
+      <c r="B174" t="n">
         <v>135</v>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C174" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -3047,14 +3571,17 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
+        <v>68</v>
+      </c>
+      <c r="B175" t="n">
         <v>167</v>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C175" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3062,14 +3589,17 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
+        <v>68</v>
+      </c>
+      <c r="B176" t="n">
         <v>120</v>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C176" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3077,14 +3607,17 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
+        <v>68</v>
+      </c>
+      <c r="B177" t="n">
         <v>110</v>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C177" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -3092,14 +3625,17 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
+        <v>68</v>
+      </c>
+      <c r="B178" t="n">
         <v>165</v>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C178" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3107,14 +3643,17 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
+        <v>68</v>
+      </c>
+      <c r="B179" t="n">
         <v>155</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="D179" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3122,14 +3661,17 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
+        <v>68</v>
+      </c>
+      <c r="B180" t="n">
         <v>125</v>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C180" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -3137,14 +3679,17 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
+        <v>68</v>
+      </c>
+      <c r="B181" t="n">
         <v>143</v>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C181" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3152,14 +3697,17 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
+        <v>68</v>
+      </c>
+      <c r="B182" t="n">
         <v>170</v>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C182" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -3167,14 +3715,17 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
+        <v>68</v>
+      </c>
+      <c r="B183" t="n">
         <v>130</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="D183" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -3182,14 +3733,17 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
+        <v>68</v>
+      </c>
+      <c r="B184" t="n">
         <v>115</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="D184" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3197,14 +3751,17 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
+        <v>68</v>
+      </c>
+      <c r="B185" t="n">
         <v>100</v>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C185" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -3212,14 +3769,17 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
+        <v>68</v>
+      </c>
+      <c r="B186" t="n">
         <v>150</v>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C186" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -3227,14 +3787,17 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
+        <v>68</v>
+      </c>
+      <c r="B187" t="n">
         <v>130</v>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="D187" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3242,14 +3805,17 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
+        <v>68</v>
+      </c>
+      <c r="B188" t="n">
         <v>142</v>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="D188" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -3257,14 +3823,17 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
+        <v>68</v>
+      </c>
+      <c r="B189" t="n">
         <v>120</v>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C189" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3272,14 +3841,17 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
+        <v>68</v>
+      </c>
+      <c r="B190" t="n">
         <v>160</v>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C190" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3287,14 +3859,17 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
+        <v>68</v>
+      </c>
+      <c r="B191" t="n">
         <v>110</v>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C191" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3302,14 +3877,17 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
+        <v>68</v>
+      </c>
+      <c r="B192" t="n">
         <v>145</v>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C192" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -3317,14 +3895,17 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
+        <v>68</v>
+      </c>
+      <c r="B193" t="n">
         <v>125</v>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="D193" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3332,14 +3913,17 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
+        <v>68</v>
+      </c>
+      <c r="B194" t="n">
         <v>155</v>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="D194" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -3347,14 +3931,17 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
+        <v>68</v>
+      </c>
+      <c r="B195" t="n">
         <v>140</v>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C195" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -3362,14 +3949,17 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
+        <v>68</v>
+      </c>
+      <c r="B196" t="n">
         <v>105</v>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C196" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3377,14 +3967,17 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
+        <v>68</v>
+      </c>
+      <c r="B197" t="n">
         <v>150</v>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C197" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3392,14 +3985,17 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
+        <v>68</v>
+      </c>
+      <c r="B198" t="n">
         <v>140</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="D198" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -3407,14 +4003,17 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
+        <v>68</v>
+      </c>
+      <c r="B199" t="n">
         <v>115</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="D199" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3422,14 +4021,17 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
+        <v>68</v>
+      </c>
+      <c r="B200" t="n">
         <v>100</v>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C200" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -3437,14 +4039,17 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
+        <v>68</v>
+      </c>
+      <c r="B201" t="n">
         <v>130</v>
       </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C201" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -3452,14 +4057,17 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
+        <v>68</v>
+      </c>
+      <c r="B202" t="n">
         <v>165</v>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C202" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3467,14 +4075,17 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
+        <v>68</v>
+      </c>
+      <c r="B203" t="n">
         <v>112</v>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="D203" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3482,14 +4093,17 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
+        <v>68</v>
+      </c>
+      <c r="B204" t="n">
         <v>122</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="D204" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -3497,14 +4111,17 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
+        <v>68</v>
+      </c>
+      <c r="B205" t="n">
         <v>105</v>
       </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C205" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3512,14 +4129,17 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
+        <v>68</v>
+      </c>
+      <c r="B206" t="n">
         <v>143</v>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C206" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -3527,14 +4147,17 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
+        <v>68</v>
+      </c>
+      <c r="B207" t="n">
         <v>160</v>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
+      <c r="D207" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -3542,14 +4165,17 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
+        <v>68</v>
+      </c>
+      <c r="B208" t="n">
         <v>134</v>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
+      <c r="D208" t="inlineStr">
         <is>
           <t>XS</t>
         </is>
@@ -3557,14 +4183,17 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
+        <v>68</v>
+      </c>
+      <c r="B209" t="n">
         <v>150</v>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C209" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3572,14 +4201,17 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
+        <v>68</v>
+      </c>
+      <c r="B210" t="n">
         <v>125</v>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C210" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -3587,14 +4219,17 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
+        <v>68</v>
+      </c>
+      <c r="B211" t="n">
         <v>100</v>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C211" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
@@ -3602,14 +4237,17 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
+        <v>68</v>
+      </c>
+      <c r="B212" t="n">
         <v>167</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Calcas</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="D212" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -3617,14 +4255,17 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
+        <v>68</v>
+      </c>
+      <c r="B213" t="n">
         <v>114</v>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C213" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3632,14 +4273,17 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
+        <v>68</v>
+      </c>
+      <c r="B214" t="n">
         <v>131</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>Tshirt</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="D214" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3647,14 +4291,17 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
+        <v>68</v>
+      </c>
+      <c r="B215" t="n">
         <v>145</v>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Calcoes</t>
-        </is>
-      </c>
       <c r="C215" t="inlineStr">
+        <is>
+          <t>Calcoes</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3662,14 +4309,17 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
+        <v>68</v>
+      </c>
+      <c r="B216" t="n">
         <v>160</v>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Camisola</t>
-        </is>
-      </c>
       <c r="C216" t="inlineStr">
+        <is>
+          <t>Camisola</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
